--- a/src/test/resources/testingData.xlsx
+++ b/src/test/resources/testingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moomo\IdeaProjects\AutomationExercise\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C0E851-C95E-4F1C-BBC4-F4FC8084063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49128E72-9812-44A6-8952-FA9085C6907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{32690539-FCF5-4ABB-B38C-C4B2786F8D5F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -102,12 +102,6 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user1@example.com</t>
-  </si>
-  <si>
     <t>TestPass123</t>
   </si>
   <si>
@@ -132,12 +126,6 @@
     <t>Austin</t>
   </si>
   <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user2@example.com</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
@@ -168,12 +156,6 @@
     <t>M5H2N2</t>
   </si>
   <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user3@example.com</t>
-  </si>
-  <si>
     <t>Qwerty321</t>
   </si>
   <si>
@@ -204,12 +186,6 @@
     <t>Sydney</t>
   </si>
   <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user4@example.com</t>
-  </si>
-  <si>
     <t>SecurePwd9</t>
   </si>
   <si>
@@ -237,12 +213,6 @@
     <t>SW1A1AA</t>
   </si>
   <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user5@example.com</t>
-  </si>
-  <si>
     <t>HelloWorld1</t>
   </si>
   <si>
@@ -280,6 +250,30 @@
   </si>
   <si>
     <t>Florida</t>
+  </si>
+  <si>
+    <t>NouraS@gmail.com</t>
+  </si>
+  <si>
+    <t>Sara22@hotmail.com</t>
+  </si>
+  <si>
+    <t>SarJon</t>
+  </si>
+  <si>
+    <t>M12k</t>
+  </si>
+  <si>
+    <t>Mbrown@example.com</t>
+  </si>
+  <si>
+    <t>Lwhite@example.com</t>
+  </si>
+  <si>
+    <t>Dgreen</t>
+  </si>
+  <si>
+    <t>dgreen@example.com</t>
   </si>
 </sst>
 </file>
@@ -681,7 +675,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,46 +746,46 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1">
         <v>1992</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P2" s="1">
         <v>73301</v>
@@ -800,15 +794,15 @@
         <v>5551234561</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -817,37 +811,37 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
         <v>1990</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="Q3" s="1">
         <v>5559876543</v>
@@ -858,46 +852,46 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1">
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
         <v>1988</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="P4" s="1">
         <v>2000</v>
@@ -911,49 +905,49 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
         <v>1995</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="1">
         <v>5553332121</v>
@@ -964,46 +958,46 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>2000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="P6" s="1">
         <v>10115</v>
@@ -1015,10 +1009,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C4513B10-B63A-428B-AF22-31C08D6A025B}"/>
-    <hyperlink ref="C3" r:id="rId2" display="mailto:user2@example.com" xr:uid="{8C354A48-76C2-4E9D-9AFA-6420655385E2}"/>
-    <hyperlink ref="C4" r:id="rId3" display="mailto:user3@example.com" xr:uid="{A1D1749E-8AAC-4726-A33F-28A2A746753E}"/>
-    <hyperlink ref="C5" r:id="rId4" display="mailto:user4@example.com" xr:uid="{01E9565F-A0CF-42BE-916C-7C977E758B00}"/>
-    <hyperlink ref="C6" r:id="rId5" display="mailto:user5@example.com" xr:uid="{200934A1-DBA7-4B24-9692-846BC0BB495E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8C354A48-76C2-4E9D-9AFA-6420655385E2}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A1D1749E-8AAC-4726-A33F-28A2A746753E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{01E9565F-A0CF-42BE-916C-7C977E758B00}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{200934A1-DBA7-4B24-9692-846BC0BB495E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1058,7 +1052,7 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1071,22 +1065,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1095,6 +1089,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016ED50B1B9AD8043917307784DDFFF39" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc6fe1da85692821c2f69dffda1f840e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8a3c354d-01c4-4281-a599-bc3b87a61a6c" xmlns:ns4="fbf0d591-d5d0-47bc-8537-520221e70358" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f882fb72504e214d43a9289b7ab6123d" ns3:_="" ns4:_="">
     <xsd:import namespace="8a3c354d-01c4-4281-a599-bc3b87a61a6c"/>
@@ -1303,15 +1306,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1321,6 +1315,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B608EE56-0CC0-4CDE-A60F-6DF3997221AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{002BF670-9640-45F2-AF35-7ED1BDD4D6A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1335,14 +1337,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B608EE56-0CC0-4CDE-A60F-6DF3997221AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
